--- a/Excel/EffectConfig.xlsx
+++ b/Excel/EffectConfig.xlsx
@@ -9069,11 +9069,11 @@
   <dimension ref="C1:M473"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="G466" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="G459" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C473" sqref="C473"/>
+      <selection pane="bottomRight" activeCell="A473" sqref="$A473:$XFD473"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
